--- a/doc/user-guide/cookbook/demand/demand-priorities.xlsx
+++ b/doc/user-guide/cookbook/demand/demand-priorities.xlsx
@@ -5,35 +5,34 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frePPLe\Documents\frePPLe_comunity\doc\cookbook\demand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community-4.0\doc\user-guide\cookbook\demand\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="135" yWindow="480" windowWidth="22718" windowHeight="9203" tabRatio="777" activeTab="8"/>
+    <workbookView xWindow="135" yWindow="480" windowWidth="22718" windowHeight="9203" tabRatio="777" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="itemoperation" sheetId="20" r:id="rId1"/>
-    <sheet name="buffer" sheetId="1" r:id="rId2"/>
-    <sheet name="calendar bucket" sheetId="2" r:id="rId3"/>
-    <sheet name="calendar" sheetId="3" r:id="rId4"/>
-    <sheet name="customer" sheetId="4" r:id="rId5"/>
-    <sheet name="demand" sheetId="5" r:id="rId6"/>
-    <sheet name="operationmaterial" sheetId="6" r:id="rId7"/>
-    <sheet name="item" sheetId="7" r:id="rId8"/>
-    <sheet name="operationresource" sheetId="8" r:id="rId9"/>
-    <sheet name="location" sheetId="9" r:id="rId10"/>
-    <sheet name="operation" sheetId="11" r:id="rId11"/>
-    <sheet name="resource" sheetId="13" r:id="rId12"/>
-    <sheet name="bucket date" sheetId="17" r:id="rId13"/>
-    <sheet name="bucket" sheetId="18" r:id="rId14"/>
-    <sheet name="parameter" sheetId="19" r:id="rId15"/>
+    <sheet name="buffer" sheetId="1" r:id="rId1"/>
+    <sheet name="calendar bucket" sheetId="2" r:id="rId2"/>
+    <sheet name="calendar" sheetId="3" r:id="rId3"/>
+    <sheet name="customer" sheetId="4" r:id="rId4"/>
+    <sheet name="demand" sheetId="5" r:id="rId5"/>
+    <sheet name="operationmaterial" sheetId="6" r:id="rId6"/>
+    <sheet name="item" sheetId="7" r:id="rId7"/>
+    <sheet name="operationresource" sheetId="8" r:id="rId8"/>
+    <sheet name="location" sheetId="9" r:id="rId9"/>
+    <sheet name="operation" sheetId="11" r:id="rId10"/>
+    <sheet name="resource" sheetId="13" r:id="rId11"/>
+    <sheet name="bucket date" sheetId="17" r:id="rId12"/>
+    <sheet name="bucket" sheetId="18" r:id="rId13"/>
+    <sheet name="parameter" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14099" uniqueCount="6475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14095" uniqueCount="6475">
   <si>
     <t>name</t>
   </si>
@@ -19801,34 +19800,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>6471</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6467</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>6467</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6472</v>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19838,32 +19852,72 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>6468</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
         <v>6467</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
+      <c r="E2">
+        <f>8*3600</f>
+        <v>28800</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6472</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6467</v>
+      </c>
+      <c r="F3">
+        <v>3600</v>
       </c>
     </row>
   </sheetData>
@@ -19872,74 +19926,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6468</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6467</v>
-      </c>
-      <c r="D2">
-        <f>8*3600</f>
-        <v>28800</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6472</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6467</v>
-      </c>
-      <c r="E3">
-        <v>3600</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -19990,7 +19976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3484"/>
   <sheetViews>
@@ -68786,7 +68772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -68870,7 +68856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -68936,58 +68922,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>6471</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6467</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -69093,7 +69027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -69127,7 +69061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -69155,7 +69089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -69600,7 +69534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -69663,7 +69597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -69698,11 +69632,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -69738,4 +69672,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>6467</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/user-guide/cookbook/demand/demand-priorities.xlsx
+++ b/doc/user-guide/cookbook/demand/demand-priorities.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\develop\frepple-community\doc\user-guide\cookbook\demand\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frepple\community\doc\user-guide\cookbook\demand\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D39A23D-EBFB-4944-8734-EFBCC4DC590F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="480" windowWidth="22725" windowHeight="9218" tabRatio="777" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="1740" yWindow="3396" windowWidth="17280" windowHeight="8964" tabRatio="777" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -25,12 +26,19 @@
     <sheet name="resource" sheetId="13" r:id="rId11"/>
     <sheet name="parameter" sheetId="19" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -189,9 +197,6 @@
   </si>
   <si>
     <t>Minimum Shipment</t>
-  </si>
-  <si>
-    <t>product @ factory</t>
   </si>
   <si>
     <t>Make product</t>
@@ -203,7 +208,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,6 +335,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -365,6 +387,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -540,49 +579,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
@@ -592,21 +622,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -644,9 +674,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -667,21 +697,21 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -698,9 +728,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -718,21 +748,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -754,7 +784,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -765,7 +795,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -782,20 +812,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -839,7 +869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -889,19 +919,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -909,7 +939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -923,24 +953,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -951,27 +981,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1033,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>"Demand prio " &amp; H2 &amp; " due " &amp; TEXT(E2,"yyyy-mm-dd")</f>
         <v>Demand prio 1 due 2013-12-06</v>
@@ -1036,7 +1066,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A14" si="0">"Demand prio " &amp; H3 &amp; " due " &amp; TEXT(E3,"yyyy-mm-dd")</f>
         <v>Demand prio 1 due 2013-12-20</v>
@@ -1069,7 +1099,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 1 due 2014-01-01</v>
@@ -1102,7 +1132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 2 due 2013-12-30</v>
@@ -1135,7 +1165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 3 due 2013-12-29</v>
@@ -1168,7 +1198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 1 due 2013-12-07</v>
@@ -1201,7 +1231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 1 due 2013-12-31</v>
@@ -1234,7 +1264,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 2 due 2013-12-09</v>
@@ -1267,7 +1297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 2 due 2013-12-17</v>
@@ -1300,7 +1330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 2 due 2013-12-17</v>
@@ -1333,7 +1363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 1 due 2013-12-04</v>
@@ -1366,7 +1396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 3 due 2013-12-11</v>
@@ -1399,7 +1429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>Demand prio 3 due 2013-12-24</v>
@@ -1438,22 +1468,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1467,9 +1497,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1481,7 +1511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1501,25 +1531,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1530,21 +1560,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1555,12 +1585,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1572,20 +1602,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +1623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>49</v>
       </c>
